--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,17 @@
   </si>
   <si>
     <t>StartY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>荒野一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒野二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,7 +558,7 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +580,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -592,8 +606,11 @@
       <c r="G2">
         <v>143</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -614,6 +631,9 @@
       </c>
       <c r="G3">
         <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,11 +167,87 @@
     <t>Name</t>
   </si>
   <si>
-    <t>荒野一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒野二</t>
+    <t>世界1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界7-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +712,500 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>143</v>
+      </c>
+      <c r="G4">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>143</v>
+      </c>
+      <c r="G5">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>143</v>
+      </c>
+      <c r="G6">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>143</v>
+      </c>
+      <c r="G7">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>143</v>
+      </c>
+      <c r="G8">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>143</v>
+      </c>
+      <c r="G9">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="G10">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>143</v>
+      </c>
+      <c r="G11">
+        <v>143</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>143</v>
+      </c>
+      <c r="G12">
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>143</v>
+      </c>
+      <c r="G13">
+        <v>143</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>143</v>
+      </c>
+      <c r="G14">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>143</v>
+      </c>
+      <c r="G15">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>143</v>
+      </c>
+      <c r="G16">
+        <v>143</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>500</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>143</v>
+      </c>
+      <c r="G17">
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>143</v>
+      </c>
+      <c r="G18">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>502</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>143</v>
+      </c>
+      <c r="G19">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>600</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>143</v>
+      </c>
+      <c r="G20">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>601</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>143</v>
+      </c>
+      <c r="G21">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>143</v>
+      </c>
+      <c r="G22">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>世界7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平世界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,6 +1210,32 @@
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>143</v>
+      </c>
+      <c r="G23">
+        <v>143</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,70 @@
   <si>
     <t>和平世界</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会地图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会地图2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Scene1</t>
+  </si>
+  <si>
+    <t>ui://GameUI/little_bg1</t>
+  </si>
+  <si>
+    <t>公会地图3</t>
+  </si>
+  <si>
+    <t>公会地图4</t>
+  </si>
+  <si>
+    <t>公会地图5</t>
+  </si>
+  <si>
+    <t>公会地图6</t>
+  </si>
+  <si>
+    <t>公会地图7</t>
+  </si>
+  <si>
+    <t>公会地图8</t>
+  </si>
+  <si>
+    <t>公会地图9</t>
+  </si>
+  <si>
+    <t>活动地图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图3</t>
+  </si>
+  <si>
+    <t>活动地图4</t>
+  </si>
+  <si>
+    <t>活动地图5</t>
+  </si>
+  <si>
+    <t>活动地图6</t>
+  </si>
+  <si>
+    <t>活动地图7</t>
+  </si>
+  <si>
+    <t>活动地图8</t>
+  </si>
+  <si>
+    <t>活动地图9</t>
   </si>
 </sst>
 </file>
@@ -624,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,6 +1300,474 @@
         <v>31</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>143</v>
+      </c>
+      <c r="G24">
+        <v>143</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>143</v>
+      </c>
+      <c r="G25">
+        <v>143</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>143</v>
+      </c>
+      <c r="G26">
+        <v>143</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>143</v>
+      </c>
+      <c r="G27">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>143</v>
+      </c>
+      <c r="G28">
+        <v>143</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>143</v>
+      </c>
+      <c r="G29">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>143</v>
+      </c>
+      <c r="G30">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>143</v>
+      </c>
+      <c r="G31">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>143</v>
+      </c>
+      <c r="G32">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>143</v>
+      </c>
+      <c r="G33">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>143</v>
+      </c>
+      <c r="G34">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>143</v>
+      </c>
+      <c r="G35">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>143</v>
+      </c>
+      <c r="G36">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3005</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>143</v>
+      </c>
+      <c r="G37">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>3006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>143</v>
+      </c>
+      <c r="G38">
+        <v>143</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>3007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>143</v>
+      </c>
+      <c r="G39">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>3008</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>143</v>
+      </c>
+      <c r="G40">
+        <v>143</v>
+      </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>3009</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>143</v>
+      </c>
+      <c r="G41">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,14 @@
   </si>
   <si>
     <t>活动地图9</t>
+  </si>
+  <si>
+    <t>经验地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,6 +708,7 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="33.875" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -1766,6 +1775,58 @@
       </c>
       <c r="H41" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>143</v>
+      </c>
+      <c r="G42">
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>143</v>
+      </c>
+      <c r="G43">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>砖石地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会排名战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,13 +1549,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>3001</v>
+        <v>2010</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1566,12 +1570,12 @@
         <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1592,18 +1596,18 @@
         <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -1618,12 +1622,12 @@
         <v>143</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1644,12 +1648,12 @@
         <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -1670,12 +1674,12 @@
         <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -1696,12 +1700,12 @@
         <v>143</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -1722,12 +1726,12 @@
         <v>143</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1748,12 +1752,12 @@
         <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -1774,12 +1778,12 @@
         <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>4000</v>
+        <v>3009</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -1800,12 +1804,12 @@
         <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -1826,6 +1830,32 @@
         <v>143</v>
       </c>
       <c r="H43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>143</v>
+      </c>
+      <c r="G44">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>公会排名战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1809,7 +1813,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>4000</v>
+        <v>3010</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -1830,12 +1834,12 @@
         <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -1856,6 +1860,32 @@
         <v>143</v>
       </c>
       <c r="H44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>143</v>
+      </c>
+      <c r="G45">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>夺宝奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1889,6 +1893,32 @@
         <v>53</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>5000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>143</v>
+      </c>
+      <c r="G46">
+        <v>143</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,6 +1943,162 @@
         <v>56</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>5001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>143</v>
+      </c>
+      <c r="G47">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>5002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>143</v>
+      </c>
+      <c r="G48">
+        <v>143</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>143</v>
+      </c>
+      <c r="G49">
+        <v>143</v>
+      </c>
+      <c r="H49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>143</v>
+      </c>
+      <c r="G50">
+        <v>143</v>
+      </c>
+      <c r="H50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>5005</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>143</v>
+      </c>
+      <c r="G51">
+        <v>143</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>143</v>
+      </c>
+      <c r="G52">
+        <v>143</v>
+      </c>
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>副本7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,6 +2103,32 @@
         <v>62</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>143</v>
+      </c>
+      <c r="G53">
+        <v>143</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,30 @@
   </si>
   <si>
     <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/SceneMiddleNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闯关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Scene75X75_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/map3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎之地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2129,6 +2153,58 @@
         <v>63</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5009</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="71">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,10 @@
   </si>
   <si>
     <t>破碎之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS之家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2205,6 +2209,32 @@
         <v>69</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>5010</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>70</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2136,22 +2136,22 @@
         <v>5007</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>7</v>
       </c>
       <c r="F53">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="G53">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
         <v>63</v>
@@ -2238,7 +2238,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>BOSS之家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS深渊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2235,6 +2239,32 @@
         <v>70</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>5011</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>70</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>BOSS深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石争夺地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,6 +2269,32 @@
         <v>71</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>143</v>
+      </c>
+      <c r="G58">
+        <v>143</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_scene.xlsx
+++ b/Excel/client_scene.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,14 @@
   </si>
   <si>
     <t>砖石争夺地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +1369,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1000</v>
+        <v>701</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -1382,12 +1390,12 @@
         <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>2001</v>
+        <v>801</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1408,12 +1416,12 @@
         <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>2002</v>
+        <v>1000</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1434,18 +1442,18 @@
         <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1460,18 +1468,18 @@
         <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1486,12 +1494,12 @@
         <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1512,12 +1520,12 @@
         <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1538,12 +1546,12 @@
         <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -1564,12 +1572,12 @@
         <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1590,12 +1598,12 @@
         <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1616,12 +1624,12 @@
         <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1642,18 +1650,18 @@
         <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>3001</v>
+        <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -1668,18 +1676,18 @@
         <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>3002</v>
+        <v>2010</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -1694,18 +1702,18 @@
         <v>143</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -1720,18 +1728,18 @@
         <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1746,12 +1754,12 @@
         <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -1772,12 +1780,12 @@
         <v>143</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -1798,12 +1806,12 @@
         <v>143</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1824,12 +1832,12 @@
         <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -1850,12 +1858,12 @@
         <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -1876,12 +1884,12 @@
         <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -1902,12 +1910,12 @@
         <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>4000</v>
+        <v>3009</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -1928,12 +1936,12 @@
         <v>143</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>4001</v>
+        <v>3010</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -1954,12 +1962,12 @@
         <v>143</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -1980,12 +1988,12 @@
         <v>143</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2006,12 +2014,12 @@
         <v>143</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -2032,12 +2040,12 @@
         <v>143</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -2058,12 +2066,12 @@
         <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -2084,12 +2092,12 @@
         <v>143</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -2110,12 +2118,12 @@
         <v>143</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -2136,64 +2144,64 @@
         <v>143</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>7</v>
       </c>
       <c r="F53">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="G53">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>7</v>
       </c>
       <c r="F54">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="G54">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
@@ -2214,18 +2222,18 @@
         <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -2240,12 +2248,12 @@
         <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -2266,32 +2274,84 @@
         <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
+        <v>5010</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>70</v>
+      </c>
+      <c r="G58">
+        <v>70</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>5011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>70</v>
+      </c>
+      <c r="G59">
+        <v>70</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>5012</v>
       </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>7</v>
-      </c>
-      <c r="F58">
-        <v>143</v>
-      </c>
-      <c r="G58">
-        <v>143</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>143</v>
+      </c>
+      <c r="G60">
+        <v>143</v>
+      </c>
+      <c r="H60" t="s">
         <v>72</v>
       </c>
     </row>
